--- a/cron/files/CargaAlmacenTest1.xlsx
+++ b/cron/files/CargaAlmacenTest1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\layouts\RevisionCargaAlmacen\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/10c876a5af77d07b/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0882A40A-F14F-44F4-BE6B-F576F0224A4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="42" documentId="13_ncr:1_{4D4BF23A-A09B-461A-A596-4E6B09856410}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C8AF5B33-1405-4A82-B797-A2492AD8FF77}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="22785" windowHeight="12795" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="25">
   <si>
     <t>tipo</t>
   </si>
@@ -75,31 +75,40 @@
     <t>ETHERNET</t>
   </si>
   <si>
-    <t>DAÑADA</t>
-  </si>
-  <si>
     <t>LABORATORIO MTY</t>
   </si>
   <si>
-    <t>14241ct22516340</t>
-  </si>
-  <si>
-    <t>VX690</t>
-  </si>
-  <si>
     <t>GPRS/WIFI</t>
   </si>
   <si>
     <t>037</t>
   </si>
   <si>
-    <t>14241ct22516336</t>
-  </si>
-  <si>
-    <t>14105ct21760761</t>
-  </si>
-  <si>
-    <t>V205C</t>
+    <t>VX610 WIFI</t>
+  </si>
+  <si>
+    <t>DISPONIBLE-USADO</t>
+  </si>
+  <si>
+    <t>aplicativo</t>
+  </si>
+  <si>
+    <t>MIT</t>
+  </si>
+  <si>
+    <t>328457147</t>
+  </si>
+  <si>
+    <t>328535411</t>
+  </si>
+  <si>
+    <t>401614340</t>
+  </si>
+  <si>
+    <t>314489868</t>
+  </si>
+  <si>
+    <t>261576599</t>
   </si>
 </sst>
 </file>
@@ -242,8 +251,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -589,20 +598,20 @@
     <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -925,20 +934,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.7109375" customWidth="1"/>
+    <col min="7" max="7" width="22" customWidth="1"/>
+    <col min="12" max="12" width="18" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="27.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -948,162 +961,180 @@
       <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" s="2">
+        <v>1</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="2">
-        <v>1</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>14</v>
-      </c>
     </row>
-    <row r="3" spans="1:12" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="K3" s="2">
+        <v>1</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J3" s="2">
-        <v>1</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>14</v>
-      </c>
     </row>
-    <row r="4" spans="1:12" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>1</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="6" t="s">
+      <c r="B4" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="K4" s="2">
+        <v>1</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J4" s="2">
-        <v>1</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>14</v>
-      </c>
     </row>
-    <row r="5" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>1</v>
       </c>
-      <c r="B5" s="7">
-        <v>402048803</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="2" t="s">
+      <c r="B5" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="G5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5" s="2">
+        <v>1</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J5" s="2">
-        <v>1</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>14</v>
-      </c>
     </row>
-    <row r="6" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>1</v>
       </c>
-      <c r="B6" s="7">
-        <v>402047549</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="2" t="s">
+      <c r="B6" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="G6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K6" s="2">
+        <v>1</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M6" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="J6" s="2">
-        <v>1</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>
